--- a/resources/구조체_자료형.xlsx
+++ b/resources/구조체_자료형.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25324"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3BACA6-B885-48A6-AD8F-B86F6E8B5F26}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sejonguniversity-my.sharepoint.com/personal/iorw0224_sju_ac_kr/Documents/2022-1/ITRC 창의 융합 과제/OM2M database 참고자료/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{512D8D7B-E30B-40FF-BA74-19BD814B8314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBCEA7F-7BC1-46F3-979B-67B8060B53EE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mandatory only" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
   <si>
     <t>오브젝트</t>
   </si>
@@ -129,35 +123,174 @@
     <t>Container</t>
   </si>
   <si>
+    <t>cni</t>
+  </si>
+  <si>
+    <t>currentByteSize</t>
+  </si>
+  <si>
+    <t>cbs</t>
+  </si>
+  <si>
+    <t>contentInstance</t>
+  </si>
+  <si>
+    <t>contentSize</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Mobius"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20191210T093452"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/Mobius2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5-20191210093452845"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TAE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20240513T083900"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"tinyProject"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TAE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ON"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>currentNrOfInstances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeLink</t>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ontologyRef</t>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcedAttribute</t>
+  </si>
+  <si>
+    <t>announceTo</t>
+  </si>
+  <si>
+    <t>mbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxByteSize</t>
+  </si>
+  <si>
+    <t>mia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxInstanceAge</t>
+  </si>
+  <si>
+    <t>mni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNrOfInstances</t>
+  </si>
+  <si>
+    <t>cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentNrOfInstances</t>
   </si>
   <si>
     <t>cni</t>
-  </si>
-  <si>
-    <t>currentByteSize</t>
-  </si>
-  <si>
-    <t>cbs</t>
-  </si>
-  <si>
-    <t>contentInstance</t>
-  </si>
-  <si>
-    <t>contentSize</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentInfo</t>
+  </si>
+  <si>
+    <t>cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +298,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,11 +364,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +405,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,21 +738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,8 +766,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -579,8 +780,14 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,8 +797,14 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,8 +814,14 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -612,8 +831,14 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,8 +848,14 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -634,8 +865,14 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,8 +882,14 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -656,8 +899,14 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -667,8 +916,14 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -678,8 +933,14 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -689,8 +950,14 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="33">
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -700,53 +967,545 @@
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0D3E86-2265-49A9-9667-DB1B9B9D7CB0}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>